--- a/data/HWO_target_list_164_update.xlsx
+++ b/data/HWO_target_list_164_update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="994">
   <si>
     <t>HIP ID (HWO)</t>
   </si>
@@ -589,496 +589,496 @@
     <t>B</t>
   </si>
   <si>
-    <t>HD72905</t>
-  </si>
-  <si>
-    <t>HD78366</t>
-  </si>
-  <si>
-    <t>HD78154A</t>
-  </si>
-  <si>
-    <t>HD84737</t>
-  </si>
-  <si>
-    <t>HD90839</t>
-  </si>
-  <si>
-    <t>HD91324</t>
-  </si>
-  <si>
-    <t>HD103095</t>
-  </si>
-  <si>
-    <t>HD109085</t>
-  </si>
-  <si>
-    <t>HD109358</t>
-  </si>
-  <si>
-    <t>HD114613</t>
-  </si>
-  <si>
-    <t>HD128167</t>
-  </si>
-  <si>
-    <t>HD131156A</t>
-  </si>
-  <si>
-    <t>HD136352</t>
-  </si>
-  <si>
-    <t>HD142373</t>
-  </si>
-  <si>
-    <t>HD142860</t>
-  </si>
-  <si>
-    <t>HD147513</t>
-  </si>
-  <si>
-    <t>HD155885</t>
-  </si>
-  <si>
-    <t>HD156274A</t>
-  </si>
-  <si>
-    <t>HD156897A</t>
-  </si>
-  <si>
-    <t>HD160691</t>
-  </si>
-  <si>
-    <t>HD165185</t>
-  </si>
-  <si>
-    <t>HD166620</t>
-  </si>
-  <si>
-    <t>HD182572</t>
-  </si>
-  <si>
-    <t>HD187013</t>
-  </si>
-  <si>
-    <t>HD193664</t>
-  </si>
-  <si>
-    <t>HD199260</t>
-  </si>
-  <si>
-    <t>HD201092</t>
-  </si>
-  <si>
-    <t>HD209100</t>
-  </si>
-  <si>
-    <t>HD212330A</t>
-  </si>
-  <si>
-    <t>HD213845A</t>
-  </si>
-  <si>
-    <t>HD739</t>
-  </si>
-  <si>
-    <t>HD3651A</t>
-  </si>
-  <si>
-    <t>HD4813</t>
-  </si>
-  <si>
-    <t>HD10360</t>
-  </si>
-  <si>
-    <t>HD10476</t>
-  </si>
-  <si>
-    <t>HD14412</t>
-  </si>
-  <si>
-    <t>HD16895A</t>
-  </si>
-  <si>
-    <t>HD20010A</t>
-  </si>
-  <si>
-    <t>HD20766</t>
-  </si>
-  <si>
-    <t>HD20794</t>
-  </si>
-  <si>
-    <t>HD23754</t>
-  </si>
-  <si>
-    <t>HD26965A</t>
-  </si>
-  <si>
-    <t>HD30495</t>
-  </si>
-  <si>
-    <t>HD39091</t>
-  </si>
-  <si>
-    <t>HD38393</t>
-  </si>
-  <si>
-    <t>HD48682</t>
-  </si>
-  <si>
-    <t>HD50281</t>
-  </si>
-  <si>
-    <t>HD53705</t>
-  </si>
-  <si>
-    <t>HD55575</t>
-  </si>
-  <si>
-    <t>HD65907A</t>
-  </si>
-  <si>
-    <t>HD7788A</t>
-  </si>
-  <si>
-    <t>HD50692</t>
-  </si>
-  <si>
-    <t>HD128620</t>
-  </si>
-  <si>
-    <t>HD143761</t>
-  </si>
-  <si>
-    <t>HD187691A</t>
-  </si>
-  <si>
-    <t>HD202560</t>
-  </si>
-  <si>
-    <t>HD4628</t>
-  </si>
-  <si>
-    <t>HD30652</t>
-  </si>
-  <si>
-    <t>HD43834A</t>
-  </si>
-  <si>
-    <t>HD140901A</t>
-  </si>
-  <si>
-    <t>HD207129</t>
-  </si>
-  <si>
-    <t>HD90589</t>
-  </si>
-  <si>
-    <t>HD115617</t>
-  </si>
-  <si>
-    <t>HD141004</t>
-  </si>
-  <si>
-    <t>HD165341B</t>
-  </si>
-  <si>
-    <t>HD192310</t>
-  </si>
-  <si>
-    <t>HD166</t>
-  </si>
-  <si>
-    <t>HD10361</t>
-  </si>
-  <si>
-    <t>HD20807</t>
-  </si>
-  <si>
-    <t>HD58855</t>
-  </si>
-  <si>
-    <t>HD90089A</t>
-  </si>
-  <si>
-    <t>HD101501</t>
-  </si>
-  <si>
-    <t>HD105452A</t>
-  </si>
-  <si>
-    <t>HD156026</t>
-  </si>
-  <si>
-    <t>HD158633</t>
-  </si>
-  <si>
-    <t>HD165341A</t>
-  </si>
-  <si>
-    <t>HD197692</t>
-  </si>
-  <si>
-    <t>HD210302</t>
-  </si>
-  <si>
-    <t>HD33564</t>
-  </si>
-  <si>
-    <t>HD38392</t>
-  </si>
-  <si>
-    <t>HD89449</t>
-  </si>
-  <si>
-    <t>HD37394</t>
-  </si>
-  <si>
-    <t>HD76151</t>
-  </si>
-  <si>
-    <t>HD115404A</t>
-  </si>
-  <si>
-    <t>HD126660A</t>
-  </si>
-  <si>
-    <t>HD134083</t>
-  </si>
-  <si>
-    <t>HD168151</t>
-  </si>
-  <si>
-    <t>HD219623</t>
-  </si>
-  <si>
-    <t>HD43386</t>
-  </si>
-  <si>
-    <t>HD84117</t>
-  </si>
-  <si>
-    <t>HD131977</t>
-  </si>
-  <si>
-    <t>HD185144</t>
-  </si>
-  <si>
-    <t>HD4614A</t>
-  </si>
-  <si>
-    <t>HD32147</t>
-  </si>
-  <si>
-    <t>HD46588A</t>
-  </si>
-  <si>
-    <t>HD35296</t>
-  </si>
-  <si>
-    <t>HD20630</t>
-  </si>
-  <si>
-    <t>HD64379</t>
-  </si>
-  <si>
-    <t>HD17206</t>
-  </si>
-  <si>
-    <t>HD203608</t>
-  </si>
-  <si>
-    <t>HD10780</t>
-  </si>
-  <si>
-    <t>HD131156B</t>
-  </si>
-  <si>
-    <t>HD165499</t>
-  </si>
-  <si>
-    <t>HD1581</t>
-  </si>
-  <si>
-    <t>HD25457</t>
-  </si>
-  <si>
-    <t>HD25998</t>
-  </si>
-  <si>
-    <t>HD10647</t>
-  </si>
-  <si>
-    <t>HD222368</t>
-  </si>
-  <si>
-    <t>HD191408A</t>
-  </si>
-  <si>
-    <t>HD160915</t>
-  </si>
-  <si>
-    <t>HD86728A</t>
-  </si>
-  <si>
-    <t>HD140538A</t>
-  </si>
-  <si>
-    <t>HD190360</t>
-  </si>
-  <si>
-    <t>HD219134</t>
-  </si>
-  <si>
-    <t>HD5015</t>
-  </si>
-  <si>
-    <t>HD22001A</t>
-  </si>
-  <si>
-    <t>HD32923</t>
-  </si>
-  <si>
-    <t>HD219482</t>
-  </si>
-  <si>
-    <t>HD7570</t>
-  </si>
-  <si>
-    <t>HD190248</t>
-  </si>
-  <si>
-    <t>HD95735</t>
-  </si>
-  <si>
-    <t>HD122064</t>
-  </si>
-  <si>
-    <t>HD155886</t>
-  </si>
-  <si>
-    <t>HD10700</t>
-  </si>
-  <si>
-    <t>HD38858</t>
-  </si>
-  <si>
-    <t>HD100623A</t>
-  </si>
-  <si>
-    <t>HD149661</t>
-  </si>
-  <si>
-    <t>HD69897</t>
-  </si>
-  <si>
-    <t>HD201091</t>
-  </si>
-  <si>
-    <t>HD74576</t>
-  </si>
-  <si>
-    <t>HD128621</t>
-  </si>
-  <si>
-    <t>HD189567</t>
-  </si>
-  <si>
-    <t>HD4391</t>
-  </si>
-  <si>
-    <t>HD23249</t>
-  </si>
-  <si>
-    <t>HD82885A</t>
-  </si>
-  <si>
-    <t>HD102365</t>
-  </si>
-  <si>
-    <t>HD95128</t>
-  </si>
-  <si>
-    <t>HD157214</t>
-  </si>
-  <si>
-    <t>HD217987</t>
-  </si>
-  <si>
-    <t>HD17925</t>
-  </si>
-  <si>
-    <t>HD43042</t>
-  </si>
-  <si>
-    <t>HD34411</t>
-  </si>
-  <si>
-    <t>HD110897</t>
-  </si>
-  <si>
-    <t>HD114710</t>
-  </si>
-  <si>
-    <t>HD88230</t>
-  </si>
-  <si>
-    <t>HD2151</t>
-  </si>
-  <si>
-    <t>HD69830</t>
-  </si>
-  <si>
-    <t>HD146233</t>
-  </si>
-  <si>
-    <t>HD102870</t>
-  </si>
-  <si>
-    <t>HD206860</t>
-  </si>
-  <si>
-    <t>HD72673</t>
-  </si>
-  <si>
-    <t>HD75732A</t>
-  </si>
-  <si>
-    <t>HD114837A</t>
-  </si>
-  <si>
-    <t>HD216803</t>
-  </si>
-  <si>
-    <t>HD17051</t>
-  </si>
-  <si>
-    <t>HD9826A</t>
-  </si>
-  <si>
-    <t>HD22049</t>
-  </si>
-  <si>
-    <t>HD22484</t>
-  </si>
-  <si>
-    <t>HD160032</t>
-  </si>
-  <si>
-    <t>HD33262A</t>
-  </si>
-  <si>
-    <t>HD125276A</t>
-  </si>
-  <si>
-    <t>HD693</t>
-  </si>
-  <si>
-    <t>HD215648A</t>
-  </si>
-  <si>
-    <t>HD19373</t>
+    <t>HD 72905</t>
+  </si>
+  <si>
+    <t>HD 78366</t>
+  </si>
+  <si>
+    <t>HD 78154 A</t>
+  </si>
+  <si>
+    <t>HD 84737</t>
+  </si>
+  <si>
+    <t>HD 90839</t>
+  </si>
+  <si>
+    <t>HD 91324</t>
+  </si>
+  <si>
+    <t>HD 103095</t>
+  </si>
+  <si>
+    <t>HD 109085</t>
+  </si>
+  <si>
+    <t>HD 109358</t>
+  </si>
+  <si>
+    <t>HD 114613</t>
+  </si>
+  <si>
+    <t>HD 128167</t>
+  </si>
+  <si>
+    <t>HD 131156 A</t>
+  </si>
+  <si>
+    <t>HD 136352</t>
+  </si>
+  <si>
+    <t>HD 142373</t>
+  </si>
+  <si>
+    <t>HD 142860</t>
+  </si>
+  <si>
+    <t>HD 147513</t>
+  </si>
+  <si>
+    <t>HD 155885</t>
+  </si>
+  <si>
+    <t>HD 156274 A</t>
+  </si>
+  <si>
+    <t>HD 156897 A</t>
+  </si>
+  <si>
+    <t>HD 160691</t>
+  </si>
+  <si>
+    <t>HD 165185</t>
+  </si>
+  <si>
+    <t>HD 166620</t>
+  </si>
+  <si>
+    <t>HD 182572</t>
+  </si>
+  <si>
+    <t>HD 187013</t>
+  </si>
+  <si>
+    <t>HD 193664</t>
+  </si>
+  <si>
+    <t>HD 199260</t>
+  </si>
+  <si>
+    <t>HD 201092</t>
+  </si>
+  <si>
+    <t>HD 209100</t>
+  </si>
+  <si>
+    <t>HD 212330 A</t>
+  </si>
+  <si>
+    <t>HD 213845 A</t>
+  </si>
+  <si>
+    <t>HD 739</t>
+  </si>
+  <si>
+    <t>HD 3651 A</t>
+  </si>
+  <si>
+    <t>HD 4813</t>
+  </si>
+  <si>
+    <t>HD 10360</t>
+  </si>
+  <si>
+    <t>HD 10476</t>
+  </si>
+  <si>
+    <t>HD 14412</t>
+  </si>
+  <si>
+    <t>HD 16895 A</t>
+  </si>
+  <si>
+    <t>HD 20010 A</t>
+  </si>
+  <si>
+    <t>HD 20766</t>
+  </si>
+  <si>
+    <t>HD 20794</t>
+  </si>
+  <si>
+    <t>HD 23754</t>
+  </si>
+  <si>
+    <t>HD 26965 A</t>
+  </si>
+  <si>
+    <t>HD 30495</t>
+  </si>
+  <si>
+    <t>HD 39091</t>
+  </si>
+  <si>
+    <t>HD 38393</t>
+  </si>
+  <si>
+    <t>HD 48682</t>
+  </si>
+  <si>
+    <t>HD 50281</t>
+  </si>
+  <si>
+    <t>HD 53705</t>
+  </si>
+  <si>
+    <t>HD 55575</t>
+  </si>
+  <si>
+    <t>HD 65907 A</t>
+  </si>
+  <si>
+    <t>HD 7788 A</t>
+  </si>
+  <si>
+    <t>HD 50692</t>
+  </si>
+  <si>
+    <t>HD 128620</t>
+  </si>
+  <si>
+    <t>HD 143761</t>
+  </si>
+  <si>
+    <t>HD 187691 A</t>
+  </si>
+  <si>
+    <t>HD 202560</t>
+  </si>
+  <si>
+    <t>HD 4628</t>
+  </si>
+  <si>
+    <t>HD 30652</t>
+  </si>
+  <si>
+    <t>HD 43834 A</t>
+  </si>
+  <si>
+    <t>HD 140901 A</t>
+  </si>
+  <si>
+    <t>HD 207129</t>
+  </si>
+  <si>
+    <t>HD 90589</t>
+  </si>
+  <si>
+    <t>HD 115617</t>
+  </si>
+  <si>
+    <t>HD 141004</t>
+  </si>
+  <si>
+    <t>HD 165341 B</t>
+  </si>
+  <si>
+    <t>HD 192310</t>
+  </si>
+  <si>
+    <t>HD 166</t>
+  </si>
+  <si>
+    <t>HD 10361</t>
+  </si>
+  <si>
+    <t>HD 20807</t>
+  </si>
+  <si>
+    <t>HD 58855</t>
+  </si>
+  <si>
+    <t>HD 90089 A</t>
+  </si>
+  <si>
+    <t>HD 101501</t>
+  </si>
+  <si>
+    <t>HD 105452 A</t>
+  </si>
+  <si>
+    <t>HD 156026</t>
+  </si>
+  <si>
+    <t>HD 158633</t>
+  </si>
+  <si>
+    <t>HD 165341 A</t>
+  </si>
+  <si>
+    <t>HD 197692</t>
+  </si>
+  <si>
+    <t>HD 210302</t>
+  </si>
+  <si>
+    <t>HD 33564</t>
+  </si>
+  <si>
+    <t>HD 38392</t>
+  </si>
+  <si>
+    <t>HD 89449</t>
+  </si>
+  <si>
+    <t>HD 37394</t>
+  </si>
+  <si>
+    <t>HD 76151</t>
+  </si>
+  <si>
+    <t>HD 115404 A</t>
+  </si>
+  <si>
+    <t>HD 126660 A</t>
+  </si>
+  <si>
+    <t>HD 134083</t>
+  </si>
+  <si>
+    <t>HD 168151</t>
+  </si>
+  <si>
+    <t>HD 219623</t>
+  </si>
+  <si>
+    <t>HD 43386</t>
+  </si>
+  <si>
+    <t>HD 84117</t>
+  </si>
+  <si>
+    <t>HD 131977</t>
+  </si>
+  <si>
+    <t>HD 185144</t>
+  </si>
+  <si>
+    <t>HD 4614 A</t>
+  </si>
+  <si>
+    <t>HD 32147</t>
+  </si>
+  <si>
+    <t>HD 46588 A</t>
+  </si>
+  <si>
+    <t>HD 35296</t>
+  </si>
+  <si>
+    <t>HD 20630</t>
+  </si>
+  <si>
+    <t>HD 64379</t>
+  </si>
+  <si>
+    <t>HD 17206</t>
+  </si>
+  <si>
+    <t>HD 203608</t>
+  </si>
+  <si>
+    <t>HD 10780</t>
+  </si>
+  <si>
+    <t>HD 131156 B</t>
+  </si>
+  <si>
+    <t>HD 165499</t>
+  </si>
+  <si>
+    <t>HD 1581</t>
+  </si>
+  <si>
+    <t>HD 25457</t>
+  </si>
+  <si>
+    <t>HD 25998</t>
+  </si>
+  <si>
+    <t>HD 10647</t>
+  </si>
+  <si>
+    <t>HD 222368</t>
+  </si>
+  <si>
+    <t>HD 191408 A</t>
+  </si>
+  <si>
+    <t>HD 160915</t>
+  </si>
+  <si>
+    <t>HD 86728 A</t>
+  </si>
+  <si>
+    <t>HD 140538 A</t>
+  </si>
+  <si>
+    <t>HD 190360</t>
+  </si>
+  <si>
+    <t>HD 219134</t>
+  </si>
+  <si>
+    <t>HD 5015</t>
+  </si>
+  <si>
+    <t>HD 22001 A</t>
+  </si>
+  <si>
+    <t>HD 32923</t>
+  </si>
+  <si>
+    <t>HD 219482</t>
+  </si>
+  <si>
+    <t>HD 7570</t>
+  </si>
+  <si>
+    <t>HD 190248</t>
+  </si>
+  <si>
+    <t>HD 95735</t>
+  </si>
+  <si>
+    <t>HD 122064</t>
+  </si>
+  <si>
+    <t>HD 155886</t>
+  </si>
+  <si>
+    <t>HD 10700</t>
+  </si>
+  <si>
+    <t>HD 38858</t>
+  </si>
+  <si>
+    <t>HD 100623 A</t>
+  </si>
+  <si>
+    <t>HD 149661</t>
+  </si>
+  <si>
+    <t>HD 69897</t>
+  </si>
+  <si>
+    <t>HD 201091</t>
+  </si>
+  <si>
+    <t>HD 74576</t>
+  </si>
+  <si>
+    <t>HD 128621</t>
+  </si>
+  <si>
+    <t>HD 189567</t>
+  </si>
+  <si>
+    <t>HD 4391</t>
+  </si>
+  <si>
+    <t>HD 23249</t>
+  </si>
+  <si>
+    <t>HD 82885 A</t>
+  </si>
+  <si>
+    <t>HD 102365</t>
+  </si>
+  <si>
+    <t>HD 95128</t>
+  </si>
+  <si>
+    <t>HD 157214</t>
+  </si>
+  <si>
+    <t>HD 217987</t>
+  </si>
+  <si>
+    <t>HD 17925</t>
+  </si>
+  <si>
+    <t>HD 43042</t>
+  </si>
+  <si>
+    <t>HD 34411</t>
+  </si>
+  <si>
+    <t>HD 110897</t>
+  </si>
+  <si>
+    <t>HD 114710</t>
+  </si>
+  <si>
+    <t>HD 88230</t>
+  </si>
+  <si>
+    <t>HD 2151</t>
+  </si>
+  <si>
+    <t>HD 69830</t>
+  </si>
+  <si>
+    <t>HD 146233</t>
+  </si>
+  <si>
+    <t>HD 102870</t>
+  </si>
+  <si>
+    <t>HD 206860</t>
+  </si>
+  <si>
+    <t>HD 72673</t>
+  </si>
+  <si>
+    <t>HD 75732 A</t>
+  </si>
+  <si>
+    <t>HD 114837 A</t>
+  </si>
+  <si>
+    <t>HD 216803</t>
+  </si>
+  <si>
+    <t>HD 17051</t>
+  </si>
+  <si>
+    <t>HD 9826 A</t>
+  </si>
+  <si>
+    <t>HD 22049</t>
+  </si>
+  <si>
+    <t>HD 22484</t>
+  </si>
+  <si>
+    <t>HD 160032</t>
+  </si>
+  <si>
+    <t>HD 33262 A</t>
+  </si>
+  <si>
+    <t>HD 125276 A</t>
+  </si>
+  <si>
+    <t>HD 693</t>
+  </si>
+  <si>
+    <t>HD 215648 A</t>
+  </si>
+  <si>
+    <t>HD 19373</t>
   </si>
   <si>
     <t>HR 3391</t>
@@ -2392,21 +2392,12 @@
     <t>3 Ursae Majoris A</t>
   </si>
   <si>
-    <t>HD 78366</t>
-  </si>
-  <si>
     <t>13 Ursae Majoris A</t>
   </si>
   <si>
-    <t>HD 84737</t>
-  </si>
-  <si>
     <t>36 Ursae Majoris A</t>
   </si>
   <si>
-    <t>HD 91324</t>
-  </si>
-  <si>
     <t>Groombridge 1830</t>
   </si>
   <si>
@@ -2416,9 +2407,6 @@
     <t>Chara</t>
   </si>
   <si>
-    <t>HD 114613</t>
-  </si>
-  <si>
     <t>Sigma Bootis</t>
   </si>
   <si>
@@ -2434,9 +2422,6 @@
     <t>Gamma Serpentis</t>
   </si>
   <si>
-    <t>HD 147513</t>
-  </si>
-  <si>
     <t>Guniibuu B</t>
   </si>
   <si>
@@ -2449,33 +2434,18 @@
     <t>Cervantes</t>
   </si>
   <si>
-    <t>HD 165185</t>
-  </si>
-  <si>
-    <t>HD 166620</t>
-  </si>
-  <si>
     <t>31 Aquilae</t>
   </si>
   <si>
     <t>17 Cygni A</t>
   </si>
   <si>
-    <t>HD 193664</t>
-  </si>
-  <si>
-    <t>HD 199260</t>
-  </si>
-  <si>
     <t>61 Cygni B</t>
   </si>
   <si>
     <t>Epsilon Indi</t>
   </si>
   <si>
-    <t>HD 212330 A</t>
-  </si>
-  <si>
     <t>Upsilon Aquarii A</t>
   </si>
   <si>
@@ -2494,9 +2464,6 @@
     <t>107 Piscium</t>
   </si>
   <si>
-    <t>HD 14412</t>
-  </si>
-  <si>
     <t>Theta Persei A</t>
   </si>
   <si>
@@ -2527,18 +2494,6 @@
     <t>56 Aurigae</t>
   </si>
   <si>
-    <t>HD 50281</t>
-  </si>
-  <si>
-    <t>HD 53705</t>
-  </si>
-  <si>
-    <t>HD 55575</t>
-  </si>
-  <si>
-    <t>HD 65907 A</t>
-  </si>
-  <si>
     <t>Kappa Tucanae A</t>
   </si>
   <si>
@@ -2557,24 +2512,12 @@
     <t>Lacaille 8760</t>
   </si>
   <si>
-    <t>HD 4628</t>
-  </si>
-  <si>
     <t>Tabit</t>
   </si>
   <si>
     <t>Alpha Mensae A</t>
   </si>
   <si>
-    <t>HD 140901 A</t>
-  </si>
-  <si>
-    <t>HD 207129</t>
-  </si>
-  <si>
-    <t>HD 90589</t>
-  </si>
-  <si>
     <t>61 Virginis</t>
   </si>
   <si>
@@ -2584,9 +2527,6 @@
     <t>70 Ophiuchi B</t>
   </si>
   <si>
-    <t>HD 192310</t>
-  </si>
-  <si>
     <t>V439 Andromedae</t>
   </si>
   <si>
@@ -2599,9 +2539,6 @@
     <t>22 Lyncis</t>
   </si>
   <si>
-    <t>HD 90089 A</t>
-  </si>
-  <si>
     <t>61 Ursae Majoris</t>
   </si>
   <si>
@@ -2611,9 +2548,6 @@
     <t>Guniibuu C</t>
   </si>
   <si>
-    <t>HD 158633</t>
-  </si>
-  <si>
     <t>70 Ophiuchi A</t>
   </si>
   <si>
@@ -2623,9 +2557,6 @@
     <t>Tau Piscis Austrini</t>
   </si>
   <si>
-    <t>HD 33564</t>
-  </si>
-  <si>
     <t>Gamma Leporis B</t>
   </si>
   <si>
@@ -2635,12 +2566,6 @@
     <t>V538 Aurigae</t>
   </si>
   <si>
-    <t>HD 76151</t>
-  </si>
-  <si>
-    <t>HD 115404 A</t>
-  </si>
-  <si>
     <t>Theta Bootis A</t>
   </si>
   <si>
@@ -2650,27 +2575,15 @@
     <t>36 Draconis</t>
   </si>
   <si>
-    <t>HD 219623</t>
-  </si>
-  <si>
     <t>74 Orionis</t>
   </si>
   <si>
-    <t>HD 84117</t>
-  </si>
-  <si>
     <t>Alsafi</t>
   </si>
   <si>
     <t>Achird</t>
   </si>
   <si>
-    <t>HD 32147</t>
-  </si>
-  <si>
-    <t>HD 46588 A</t>
-  </si>
-  <si>
     <t>111 Tauri</t>
   </si>
   <si>
@@ -2698,9 +2611,6 @@
     <t>Zeta Tucanae</t>
   </si>
   <si>
-    <t>HD 25457</t>
-  </si>
-  <si>
     <t>50 Persei</t>
   </si>
   <si>
@@ -2710,9 +2620,6 @@
     <t>Iota Piscium</t>
   </si>
   <si>
-    <t>HD 191408 A</t>
-  </si>
-  <si>
     <t>58 Ophiuchi</t>
   </si>
   <si>
@@ -2722,24 +2629,12 @@
     <t>Psi Serpentis A</t>
   </si>
   <si>
-    <t>HD 190360</t>
-  </si>
-  <si>
-    <t>HD 219134</t>
-  </si>
-  <si>
-    <t>HD 5015</t>
-  </si>
-  <si>
     <t>Kappa Reticuli A</t>
   </si>
   <si>
     <t>104 Tauri</t>
   </si>
   <si>
-    <t>HD 219482</t>
-  </si>
-  <si>
     <t>Nu Phoenicis</t>
   </si>
   <si>
@@ -2749,18 +2644,12 @@
     <t>Lalande 21185</t>
   </si>
   <si>
-    <t>HD 122064</t>
-  </si>
-  <si>
     <t>Guniibuu</t>
   </si>
   <si>
     <t>Tau Ceti</t>
   </si>
   <si>
-    <t>HD 38858</t>
-  </si>
-  <si>
     <t>20 Crateris A</t>
   </si>
   <si>
@@ -2773,27 +2662,15 @@
     <t>61 Cygni A</t>
   </si>
   <si>
-    <t>HD 74576</t>
-  </si>
-  <si>
     <t>Toliman</t>
   </si>
   <si>
-    <t>HD 189567</t>
-  </si>
-  <si>
-    <t>HD 4391</t>
-  </si>
-  <si>
     <t>Rana</t>
   </si>
   <si>
     <t>11 Leo Minoris A</t>
   </si>
   <si>
-    <t>HD 102365</t>
-  </si>
-  <si>
     <t>Chalawan</t>
   </si>
   <si>
@@ -2824,9 +2701,6 @@
     <t>Beta Hydri</t>
   </si>
   <si>
-    <t>HD 69830</t>
-  </si>
-  <si>
     <t>18 Scorpii</t>
   </si>
   <si>
@@ -2836,15 +2710,9 @@
     <t>HN Pegasi</t>
   </si>
   <si>
-    <t>HD 72673</t>
-  </si>
-  <si>
     <t>Copernicus</t>
   </si>
   <si>
-    <t>HD 114837 A</t>
-  </si>
-  <si>
     <t>Fomalhaut B</t>
   </si>
   <si>
@@ -2864,9 +2732,6 @@
   </si>
   <si>
     <t>Zeta Doradus A</t>
-  </si>
-  <si>
-    <t>HD 125276 A</t>
   </si>
   <si>
     <t>6 Ceti</t>
@@ -3627,7 +3492,7 @@
         <v>5.26</v>
       </c>
       <c r="O2" t="s">
-        <v>954</v>
+        <v>909</v>
       </c>
       <c r="P2">
         <v>5893</v>
@@ -3689,7 +3554,7 @@
         <v>512</v>
       </c>
       <c r="G3" t="s">
-        <v>792</v>
+        <v>192</v>
       </c>
       <c r="H3">
         <v>18.9498</v>
@@ -3713,7 +3578,7 @@
         <v>5.59</v>
       </c>
       <c r="O3" t="s">
-        <v>955</v>
+        <v>910</v>
       </c>
       <c r="P3">
         <v>5992</v>
@@ -3781,7 +3646,7 @@
         <v>676</v>
       </c>
       <c r="G4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H4">
         <v>20.5169</v>
@@ -3805,7 +3670,7 @@
         <v>4.52</v>
       </c>
       <c r="O4" t="s">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="P4">
         <v>6325</v>
@@ -3867,7 +3732,7 @@
         <v>514</v>
       </c>
       <c r="G5" t="s">
-        <v>794</v>
+        <v>194</v>
       </c>
       <c r="H5">
         <v>18.8226</v>
@@ -3891,7 +3756,7 @@
         <v>4.7</v>
       </c>
       <c r="O5" t="s">
-        <v>957</v>
+        <v>912</v>
       </c>
       <c r="P5">
         <v>5893</v>
@@ -3959,7 +3824,7 @@
         <v>677</v>
       </c>
       <c r="G6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H6">
         <v>12.9452</v>
@@ -3983,7 +3848,7 @@
         <v>4.51</v>
       </c>
       <c r="O6" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="P6">
         <v>6164</v>
@@ -4045,7 +3910,7 @@
         <v>516</v>
       </c>
       <c r="G7" t="s">
-        <v>796</v>
+        <v>196</v>
       </c>
       <c r="H7">
         <v>22.0616</v>
@@ -4069,7 +3934,7 @@
         <v>4.59</v>
       </c>
       <c r="O7" t="s">
-        <v>959</v>
+        <v>914</v>
       </c>
       <c r="P7">
         <v>6155</v>
@@ -4134,7 +3999,7 @@
         <v>678</v>
       </c>
       <c r="G8" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="H8">
         <v>9.171799999999999</v>
@@ -4158,7 +4023,7 @@
         <v>5.959</v>
       </c>
       <c r="O8" t="s">
-        <v>960</v>
+        <v>915</v>
       </c>
       <c r="P8">
         <v>5057</v>
@@ -4223,7 +4088,7 @@
         <v>679</v>
       </c>
       <c r="G9" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H9">
         <v>18.2437</v>
@@ -4247,7 +4112,7 @@
         <v>4.07</v>
       </c>
       <c r="O9" t="s">
-        <v>961</v>
+        <v>916</v>
       </c>
       <c r="P9">
         <v>6871</v>
@@ -4312,7 +4177,7 @@
         <v>680</v>
       </c>
       <c r="G10" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="H10">
         <v>8.4727</v>
@@ -4336,7 +4201,7 @@
         <v>3.89</v>
       </c>
       <c r="O10" t="s">
-        <v>962</v>
+        <v>917</v>
       </c>
       <c r="P10">
         <v>5878</v>
@@ -4398,7 +4263,7 @@
         <v>520</v>
       </c>
       <c r="G11" t="s">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="H11">
         <v>20.4628</v>
@@ -4422,7 +4287,7 @@
         <v>4.462</v>
       </c>
       <c r="O11" t="s">
-        <v>963</v>
+        <v>918</v>
       </c>
       <c r="P11">
         <v>5688</v>
@@ -4487,7 +4352,7 @@
         <v>681</v>
       </c>
       <c r="G12" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H12">
         <v>15.756</v>
@@ -4511,7 +4376,7 @@
         <v>4.23</v>
       </c>
       <c r="O12" t="s">
-        <v>964</v>
+        <v>919</v>
       </c>
       <c r="P12">
         <v>6745</v>
@@ -4579,7 +4444,7 @@
         <v>682</v>
       </c>
       <c r="G13" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="H13">
         <v>6.7536</v>
@@ -4603,7 +4468,7 @@
         <v>4.251</v>
       </c>
       <c r="O13" t="s">
-        <v>965</v>
+        <v>920</v>
       </c>
       <c r="P13">
         <v>5487</v>
@@ -4668,7 +4533,7 @@
         <v>683</v>
       </c>
       <c r="G14" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="H14">
         <v>14.7391</v>
@@ -4692,7 +4557,7 @@
         <v>5.285</v>
       </c>
       <c r="O14" t="s">
-        <v>966</v>
+        <v>921</v>
       </c>
       <c r="P14">
         <v>5685</v>
@@ -4757,7 +4622,7 @@
         <v>684</v>
       </c>
       <c r="G15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="H15">
         <v>15.8975</v>
@@ -4781,7 +4646,7 @@
         <v>4.2</v>
       </c>
       <c r="O15" t="s">
-        <v>967</v>
+        <v>922</v>
       </c>
       <c r="P15">
         <v>5820</v>
@@ -4846,7 +4711,7 @@
         <v>685</v>
       </c>
       <c r="G16" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="H16">
         <v>11.2537</v>
@@ -4870,7 +4735,7 @@
         <v>3.504</v>
       </c>
       <c r="O16" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="P16">
         <v>6285</v>
@@ -4932,7 +4797,7 @@
         <v>526</v>
       </c>
       <c r="G17" t="s">
-        <v>806</v>
+        <v>206</v>
       </c>
       <c r="H17">
         <v>12.8923</v>
@@ -4956,7 +4821,7 @@
         <v>5.01</v>
       </c>
       <c r="O17" t="s">
-        <v>969</v>
+        <v>924</v>
       </c>
       <c r="P17">
         <v>5868</v>
@@ -5024,7 +4889,7 @@
         <v>686</v>
       </c>
       <c r="G18" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H18">
         <v>5.9478</v>
@@ -5048,7 +4913,7 @@
         <v>4.586</v>
       </c>
       <c r="O18" t="s">
-        <v>970</v>
+        <v>925</v>
       </c>
       <c r="P18">
         <v>5144</v>
@@ -5116,7 +4981,7 @@
         <v>687</v>
       </c>
       <c r="G19" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H19">
         <v>8.7911</v>
@@ -5140,7 +5005,7 @@
         <v>5.008</v>
       </c>
       <c r="O19" t="s">
-        <v>971</v>
+        <v>926</v>
       </c>
       <c r="P19">
         <v>5235</v>
@@ -5208,7 +5073,7 @@
         <v>688</v>
       </c>
       <c r="G20" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H20">
         <v>17.5187</v>
@@ -5232,7 +5097,7 @@
         <v>4.16</v>
       </c>
       <c r="O20" t="s">
-        <v>961</v>
+        <v>916</v>
       </c>
       <c r="P20">
         <v>6756</v>
@@ -5294,7 +5159,7 @@
         <v>689</v>
       </c>
       <c r="G21" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H21">
         <v>15.6042</v>
@@ -5318,7 +5183,7 @@
         <v>4.735</v>
       </c>
       <c r="O21" t="s">
-        <v>972</v>
+        <v>927</v>
       </c>
       <c r="P21">
         <v>5761</v>
@@ -5383,7 +5248,7 @@
         <v>531</v>
       </c>
       <c r="G22" t="s">
-        <v>811</v>
+        <v>211</v>
       </c>
       <c r="H22">
         <v>17.1146</v>
@@ -5407,7 +5272,7 @@
         <v>5.6</v>
       </c>
       <c r="O22" t="s">
-        <v>962</v>
+        <v>917</v>
       </c>
       <c r="P22">
         <v>5892</v>
@@ -5469,7 +5334,7 @@
         <v>532</v>
       </c>
       <c r="G23" t="s">
-        <v>812</v>
+        <v>212</v>
       </c>
       <c r="H23">
         <v>11.0959</v>
@@ -5493,7 +5358,7 @@
         <v>5.89</v>
       </c>
       <c r="O23" t="s">
-        <v>973</v>
+        <v>928</v>
       </c>
       <c r="P23">
         <v>5028</v>
@@ -5558,7 +5423,7 @@
         <v>690</v>
       </c>
       <c r="G24" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="H24">
         <v>14.922</v>
@@ -5582,7 +5447,7 @@
         <v>4.66</v>
       </c>
       <c r="O24" t="s">
-        <v>974</v>
+        <v>929</v>
       </c>
       <c r="P24">
         <v>5593</v>
@@ -5650,7 +5515,7 @@
         <v>691</v>
       </c>
       <c r="G25" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="H25">
         <v>20.9857</v>
@@ -5674,7 +5539,7 @@
         <v>4.697</v>
       </c>
       <c r="O25" t="s">
-        <v>975</v>
+        <v>930</v>
       </c>
       <c r="P25">
         <v>6455</v>
@@ -5736,7 +5601,7 @@
         <v>535</v>
       </c>
       <c r="G26" t="s">
-        <v>815</v>
+        <v>215</v>
       </c>
       <c r="H26">
         <v>17.4813</v>
@@ -5760,7 +5625,7 @@
         <v>5.58</v>
       </c>
       <c r="O26" t="s">
-        <v>962</v>
+        <v>917</v>
       </c>
       <c r="P26">
         <v>5930</v>
@@ -5822,7 +5687,7 @@
         <v>536</v>
       </c>
       <c r="G27" t="s">
-        <v>816</v>
+        <v>216</v>
       </c>
       <c r="H27">
         <v>21.1021</v>
@@ -5846,7 +5711,7 @@
         <v>5.392</v>
       </c>
       <c r="O27" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="P27">
         <v>6270</v>
@@ -5911,7 +5776,7 @@
         <v>692</v>
       </c>
       <c r="G28" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="H28">
         <v>3.4964</v>
@@ -5935,7 +5800,7 @@
         <v>5.197</v>
       </c>
       <c r="O28" t="s">
-        <v>976</v>
+        <v>931</v>
       </c>
       <c r="P28">
         <v>4107</v>
@@ -6000,7 +5865,7 @@
         <v>693</v>
       </c>
       <c r="G29" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="H29">
         <v>3.6384</v>
@@ -6024,7 +5889,7 @@
         <v>4.065</v>
       </c>
       <c r="O29" t="s">
-        <v>977</v>
+        <v>932</v>
       </c>
       <c r="P29">
         <v>4641</v>
@@ -6089,7 +5954,7 @@
         <v>539</v>
       </c>
       <c r="G30" t="s">
-        <v>819</v>
+        <v>219</v>
       </c>
       <c r="H30">
         <v>20.3398</v>
@@ -6113,7 +5978,7 @@
         <v>4.937</v>
       </c>
       <c r="O30" t="s">
-        <v>978</v>
+        <v>933</v>
       </c>
       <c r="P30">
         <v>5660</v>
@@ -6181,7 +6046,7 @@
         <v>694</v>
       </c>
       <c r="G31" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="H31">
         <v>23.0205</v>
@@ -6205,7 +6070,7 @@
         <v>4.93</v>
       </c>
       <c r="O31" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="P31">
         <v>6605</v>
@@ -6270,7 +6135,7 @@
         <v>695</v>
       </c>
       <c r="G32" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="H32">
         <v>21.7191</v>
@@ -6294,7 +6159,7 @@
         <v>4.951</v>
       </c>
       <c r="O32" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="P32">
         <v>6495</v>
@@ -6362,7 +6227,7 @@
         <v>696</v>
       </c>
       <c r="G33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="H33">
         <v>11.1081</v>
@@ -6386,7 +6251,7 @@
         <v>5.42</v>
       </c>
       <c r="O33" t="s">
-        <v>980</v>
+        <v>935</v>
       </c>
       <c r="P33">
         <v>5203</v>
@@ -6451,7 +6316,7 @@
         <v>697</v>
       </c>
       <c r="G34" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="H34">
         <v>15.923</v>
@@ -6475,7 +6340,7 @@
         <v>4.85</v>
       </c>
       <c r="O34" t="s">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="P34">
         <v>6208</v>
@@ -6543,7 +6408,7 @@
         <v>698</v>
       </c>
       <c r="G35" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="H35">
         <v>8.189399999999999</v>
@@ -6567,7 +6432,7 @@
         <v>5.262</v>
       </c>
       <c r="O35" t="s">
-        <v>973</v>
+        <v>928</v>
       </c>
       <c r="P35">
         <v>5025</v>
@@ -6632,7 +6497,7 @@
         <v>699</v>
       </c>
       <c r="G36" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="H36">
         <v>7.6439</v>
@@ -6656,7 +6521,7 @@
         <v>4.78</v>
       </c>
       <c r="O36" t="s">
-        <v>970</v>
+        <v>925</v>
       </c>
       <c r="P36">
         <v>5204</v>
@@ -6718,7 +6583,7 @@
         <v>546</v>
       </c>
       <c r="G37" t="s">
-        <v>826</v>
+        <v>226</v>
       </c>
       <c r="H37">
         <v>12.8347</v>
@@ -6742,7 +6607,7 @@
         <v>5.97</v>
       </c>
       <c r="O37" t="s">
-        <v>981</v>
+        <v>936</v>
       </c>
       <c r="P37">
         <v>5401</v>
@@ -6810,7 +6675,7 @@
         <v>700</v>
       </c>
       <c r="G38" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="H38">
         <v>11.1501</v>
@@ -6834,7 +6699,7 @@
         <v>3.795</v>
       </c>
       <c r="O38" t="s">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="P38">
         <v>6263</v>
@@ -6902,7 +6767,7 @@
         <v>701</v>
       </c>
       <c r="G39" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="H39">
         <v>13.999</v>
@@ -6926,7 +6791,7 @@
         <v>3.54</v>
       </c>
       <c r="O39" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="P39">
         <v>6195</v>
@@ -6991,7 +6856,7 @@
         <v>702</v>
       </c>
       <c r="G40" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="H40">
         <v>12.0447</v>
@@ -7015,7 +6880,7 @@
         <v>5.16</v>
       </c>
       <c r="O40" t="s">
-        <v>982</v>
+        <v>937</v>
       </c>
       <c r="P40">
         <v>5710</v>
@@ -7080,7 +6945,7 @@
         <v>703</v>
       </c>
       <c r="G41" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="H41">
         <v>6.0414</v>
@@ -7104,7 +6969,7 @@
         <v>3.85</v>
       </c>
       <c r="O41" t="s">
-        <v>983</v>
+        <v>938</v>
       </c>
       <c r="P41">
         <v>5432</v>
@@ -7169,7 +7034,7 @@
         <v>704</v>
       </c>
       <c r="G42" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="H42">
         <v>17.7847</v>
@@ -7193,7 +7058,7 @@
         <v>3.97</v>
       </c>
       <c r="O42" t="s">
-        <v>984</v>
+        <v>939</v>
       </c>
       <c r="P42">
         <v>6685</v>
@@ -7261,7 +7126,7 @@
         <v>705</v>
       </c>
       <c r="G43" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="H43">
         <v>5.0098</v>
@@ -7285,7 +7150,7 @@
         <v>3.96</v>
       </c>
       <c r="O43" t="s">
-        <v>980</v>
+        <v>935</v>
       </c>
       <c r="P43">
         <v>5133</v>
@@ -7350,7 +7215,7 @@
         <v>706</v>
       </c>
       <c r="G44" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="H44">
         <v>13.24</v>
@@ -7374,7 +7239,7 @@
         <v>5.115</v>
       </c>
       <c r="O44" t="s">
-        <v>985</v>
+        <v>940</v>
       </c>
       <c r="P44">
         <v>5833</v>
@@ -7439,7 +7304,7 @@
         <v>707</v>
       </c>
       <c r="G45" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="H45">
         <v>18.2874</v>
@@ -7463,7 +7328,7 @@
         <v>5.31</v>
       </c>
       <c r="O45" t="s">
-        <v>962</v>
+        <v>917</v>
       </c>
       <c r="P45">
         <v>5982</v>
@@ -7531,7 +7396,7 @@
         <v>708</v>
       </c>
       <c r="G46" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="H46">
         <v>8.904999999999999</v>
@@ -7555,7 +7420,7 @@
         <v>3.295</v>
       </c>
       <c r="O46" t="s">
-        <v>986</v>
+        <v>941</v>
       </c>
       <c r="P46">
         <v>6313</v>
@@ -7620,7 +7485,7 @@
         <v>709</v>
       </c>
       <c r="G47" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="H47">
         <v>16.6106</v>
@@ -7644,7 +7509,7 @@
         <v>4.93</v>
       </c>
       <c r="O47" t="s">
-        <v>987</v>
+        <v>942</v>
       </c>
       <c r="P47">
         <v>6066</v>
@@ -7706,7 +7571,7 @@
         <v>557</v>
       </c>
       <c r="G48" t="s">
-        <v>837</v>
+        <v>237</v>
       </c>
       <c r="H48">
         <v>8.7447</v>
@@ -7730,7 +7595,7 @@
         <v>5.975</v>
       </c>
       <c r="O48" t="s">
-        <v>988</v>
+        <v>943</v>
       </c>
       <c r="P48">
         <v>4767</v>
@@ -7792,7 +7657,7 @@
         <v>558</v>
       </c>
       <c r="G49" t="s">
-        <v>838</v>
+        <v>238</v>
       </c>
       <c r="H49">
         <v>17.0593</v>
@@ -7816,7 +7681,7 @@
         <v>5.181</v>
       </c>
       <c r="O49" t="s">
-        <v>989</v>
+        <v>944</v>
       </c>
       <c r="P49">
         <v>5790</v>
@@ -7878,7 +7743,7 @@
         <v>559</v>
       </c>
       <c r="G50" t="s">
-        <v>839</v>
+        <v>239</v>
       </c>
       <c r="H50">
         <v>16.8518</v>
@@ -7902,7 +7767,7 @@
         <v>5.19</v>
       </c>
       <c r="O50" t="s">
-        <v>987</v>
+        <v>942</v>
       </c>
       <c r="P50">
         <v>5902</v>
@@ -7967,7 +7832,7 @@
         <v>560</v>
       </c>
       <c r="G51" t="s">
-        <v>840</v>
+        <v>240</v>
       </c>
       <c r="H51">
         <v>16.1718</v>
@@ -7991,7 +7856,7 @@
         <v>5.28</v>
       </c>
       <c r="O51" t="s">
-        <v>990</v>
+        <v>945</v>
       </c>
       <c r="P51">
         <v>5997</v>
@@ -8059,7 +7924,7 @@
         <v>710</v>
       </c>
       <c r="G52" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="H52">
         <v>23.2606</v>
@@ -8083,7 +7948,7 @@
         <v>4.662</v>
       </c>
       <c r="O52" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="P52">
         <v>6436</v>
@@ -8148,7 +8013,7 @@
         <v>711</v>
       </c>
       <c r="G53" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="H53">
         <v>17.4047</v>
@@ -8172,7 +8037,7 @@
         <v>5.4</v>
       </c>
       <c r="O53" t="s">
-        <v>962</v>
+        <v>917</v>
       </c>
       <c r="P53">
         <v>5924</v>
@@ -8237,7 +8102,7 @@
         <v>712</v>
       </c>
       <c r="G54" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="H54">
         <v>1.3319</v>
@@ -8261,7 +8126,7 @@
         <v>-0.352</v>
       </c>
       <c r="O54" t="s">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="P54">
         <v>5776</v>
@@ -8326,7 +8191,7 @@
         <v>713</v>
       </c>
       <c r="G55" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="H55">
         <v>17.5108</v>
@@ -8350,7 +8215,7 @@
         <v>5.01</v>
       </c>
       <c r="O55" t="s">
-        <v>992</v>
+        <v>947</v>
       </c>
       <c r="P55">
         <v>5812</v>
@@ -8418,7 +8283,7 @@
         <v>714</v>
       </c>
       <c r="G56" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="H56">
         <v>19.4881</v>
@@ -8442,7 +8307,7 @@
         <v>4.783</v>
       </c>
       <c r="O56" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="P56">
         <v>6134</v>
@@ -8504,7 +8369,7 @@
         <v>715</v>
       </c>
       <c r="G57" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="H57">
         <v>3.9696</v>
@@ -8528,7 +8393,7 @@
         <v>5.77</v>
       </c>
       <c r="O57" t="s">
-        <v>993</v>
+        <v>948</v>
       </c>
       <c r="P57">
         <v>3874</v>
@@ -8590,7 +8455,7 @@
         <v>567</v>
       </c>
       <c r="G58" t="s">
-        <v>847</v>
+        <v>247</v>
       </c>
       <c r="H58">
         <v>7.4352</v>
@@ -8614,7 +8479,7 @@
         <v>5.21</v>
       </c>
       <c r="O58" t="s">
-        <v>973</v>
+        <v>928</v>
       </c>
       <c r="P58">
         <v>5007</v>
@@ -8679,7 +8544,7 @@
         <v>716</v>
       </c>
       <c r="G59" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="H59">
         <v>8.0684</v>
@@ -8703,7 +8568,7 @@
         <v>2.92</v>
       </c>
       <c r="O59" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="P59">
         <v>6443</v>
@@ -8771,7 +8636,7 @@
         <v>717</v>
       </c>
       <c r="G60" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="H60">
         <v>10.2129</v>
@@ -8795,7 +8660,7 @@
         <v>4.675</v>
       </c>
       <c r="O60" t="s">
-        <v>994</v>
+        <v>949</v>
       </c>
       <c r="P60">
         <v>5594</v>
@@ -8860,7 +8725,7 @@
         <v>570</v>
       </c>
       <c r="G61" t="s">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="H61">
         <v>15.2465</v>
@@ -8884,7 +8749,7 @@
         <v>5.612</v>
       </c>
       <c r="O61" t="s">
-        <v>974</v>
+        <v>929</v>
       </c>
       <c r="P61">
         <v>5602</v>
@@ -8946,7 +8811,7 @@
         <v>571</v>
       </c>
       <c r="G62" t="s">
-        <v>851</v>
+        <v>251</v>
       </c>
       <c r="H62">
         <v>15.5589</v>
@@ -8970,7 +8835,7 @@
         <v>5.235</v>
       </c>
       <c r="O62" t="s">
-        <v>995</v>
+        <v>950</v>
       </c>
       <c r="P62">
         <v>5935</v>
@@ -9032,7 +8897,7 @@
         <v>572</v>
       </c>
       <c r="G63" t="s">
-        <v>852</v>
+        <v>252</v>
       </c>
       <c r="H63">
         <v>16.2232</v>
@@ -9056,7 +8921,7 @@
         <v>3.76</v>
       </c>
       <c r="O63" t="s">
-        <v>996</v>
+        <v>951</v>
       </c>
       <c r="P63">
         <v>6905</v>
@@ -9121,7 +8986,7 @@
         <v>718</v>
       </c>
       <c r="G64" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="H64">
         <v>8.5344</v>
@@ -9145,7 +9010,7 @@
         <v>4.33</v>
       </c>
       <c r="O64" t="s">
-        <v>997</v>
+        <v>952</v>
       </c>
       <c r="P64">
         <v>5552</v>
@@ -9210,7 +9075,7 @@
         <v>719</v>
       </c>
       <c r="G65" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="H65">
         <v>11.9159</v>
@@ -9234,7 +9099,7 @@
         <v>4.075</v>
       </c>
       <c r="O65" t="s">
-        <v>998</v>
+        <v>953</v>
       </c>
       <c r="P65">
         <v>5898</v>
@@ -9302,7 +9167,7 @@
         <v>720</v>
       </c>
       <c r="G66" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="H66">
         <v>5.1225</v>
@@ -9326,7 +9191,7 @@
         <v>5.275</v>
       </c>
       <c r="O66" t="s">
-        <v>999</v>
+        <v>954</v>
       </c>
       <c r="P66">
         <v>4475</v>
@@ -9388,7 +9253,7 @@
         <v>576</v>
       </c>
       <c r="G67" t="s">
-        <v>856</v>
+        <v>256</v>
       </c>
       <c r="H67">
         <v>8.8116</v>
@@ -9412,7 +9277,7 @@
         <v>5.23</v>
       </c>
       <c r="O67" t="s">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="P67">
         <v>5087</v>
@@ -9477,7 +9342,7 @@
         <v>721</v>
       </c>
       <c r="G68" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="H68">
         <v>13.7662</v>
@@ -9501,7 +9366,7 @@
         <v>5.63</v>
       </c>
       <c r="O68" t="s">
-        <v>981</v>
+        <v>936</v>
       </c>
       <c r="P68">
         <v>5491</v>
@@ -9569,7 +9434,7 @@
         <v>722</v>
       </c>
       <c r="G69" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="H69">
         <v>8.1965</v>
@@ -9593,7 +9458,7 @@
         <v>5.377</v>
       </c>
       <c r="O69" t="s">
-        <v>973</v>
+        <v>928</v>
       </c>
       <c r="P69">
         <v>5111</v>
@@ -9658,7 +9523,7 @@
         <v>723</v>
       </c>
       <c r="G70" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="H70">
         <v>12.0394</v>
@@ -9682,7 +9547,7 @@
         <v>4.885</v>
       </c>
       <c r="O70" t="s">
-        <v>1001</v>
+        <v>956</v>
       </c>
       <c r="P70">
         <v>5847</v>
@@ -9747,7 +9612,7 @@
         <v>724</v>
       </c>
       <c r="G71" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="H71">
         <v>20.4021</v>
@@ -9771,7 +9636,7 @@
         <v>5.047</v>
       </c>
       <c r="O71" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="P71">
         <v>6349</v>
@@ -9836,7 +9701,7 @@
         <v>581</v>
       </c>
       <c r="G72" t="s">
-        <v>861</v>
+        <v>261</v>
       </c>
       <c r="H72">
         <v>22.7302</v>
@@ -9860,7 +9725,7 @@
         <v>4.989</v>
       </c>
       <c r="O72" t="s">
-        <v>1002</v>
+        <v>957</v>
       </c>
       <c r="P72">
         <v>6758</v>
@@ -9925,7 +9790,7 @@
         <v>725</v>
       </c>
       <c r="G73" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="H73">
         <v>9.5762</v>
@@ -9949,7 +9814,7 @@
         <v>4.91</v>
       </c>
       <c r="O73" t="s">
-        <v>981</v>
+        <v>936</v>
       </c>
       <c r="P73">
         <v>5491</v>
@@ -10017,7 +9882,7 @@
         <v>726</v>
       </c>
       <c r="G74" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H74">
         <v>14.9365</v>
@@ -10041,7 +9906,7 @@
         <v>3.804</v>
       </c>
       <c r="O74" t="s">
-        <v>1003</v>
+        <v>958</v>
       </c>
       <c r="P74">
         <v>6990</v>
@@ -10103,7 +9968,7 @@
         <v>727</v>
       </c>
       <c r="G75" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="H75">
         <v>5.9537</v>
@@ -10127,7 +9992,7 @@
         <v>5.618</v>
       </c>
       <c r="O75" t="s">
-        <v>1004</v>
+        <v>959</v>
       </c>
       <c r="P75">
         <v>4476</v>
@@ -10189,7 +10054,7 @@
         <v>585</v>
       </c>
       <c r="G76" t="s">
-        <v>865</v>
+        <v>265</v>
       </c>
       <c r="H76">
         <v>12.7919</v>
@@ -10213,7 +10078,7 @@
         <v>5.95</v>
       </c>
       <c r="O76" t="s">
-        <v>1005</v>
+        <v>960</v>
       </c>
       <c r="P76">
         <v>5302</v>
@@ -10281,7 +10146,7 @@
         <v>728</v>
       </c>
       <c r="G77" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="H77">
         <v>5.1133</v>
@@ -10305,7 +10170,7 @@
         <v>3.748</v>
       </c>
       <c r="O77" t="s">
-        <v>1006</v>
+        <v>961</v>
       </c>
       <c r="P77">
         <v>5298</v>
@@ -10370,7 +10235,7 @@
         <v>729</v>
       </c>
       <c r="G78" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="H78">
         <v>14.6334</v>
@@ -10394,7 +10259,7 @@
         <v>3.88</v>
       </c>
       <c r="O78" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="P78">
         <v>6638</v>
@@ -10459,7 +10324,7 @@
         <v>730</v>
       </c>
       <c r="G79" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="H79">
         <v>18.4579</v>
@@ -10483,7 +10348,7 @@
         <v>4.63</v>
       </c>
       <c r="O79" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="P79">
         <v>6364</v>
@@ -10545,7 +10410,7 @@
         <v>589</v>
       </c>
       <c r="G80" t="s">
-        <v>869</v>
+        <v>269</v>
       </c>
       <c r="H80">
         <v>20.7858</v>
@@ -10569,7 +10434,7 @@
         <v>4.79</v>
       </c>
       <c r="O80" t="s">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="P80">
         <v>6354</v>
@@ -10637,7 +10502,7 @@
         <v>731</v>
       </c>
       <c r="G81" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="H81">
         <v>8.8916</v>
@@ -10661,7 +10526,7 @@
         <v>5.64</v>
       </c>
       <c r="O81" t="s">
-        <v>1007</v>
+        <v>962</v>
       </c>
       <c r="P81">
         <v>4950</v>
@@ -10726,7 +10591,7 @@
         <v>732</v>
       </c>
       <c r="G82" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
       <c r="H82">
         <v>21.2199</v>
@@ -10750,7 +10615,7 @@
         <v>4.485</v>
       </c>
       <c r="O82" t="s">
-        <v>1008</v>
+        <v>963</v>
       </c>
       <c r="P82">
         <v>6410</v>
@@ -10815,7 +10680,7 @@
         <v>733</v>
       </c>
       <c r="G83" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
       <c r="H83">
         <v>12.2701</v>
@@ -10839,7 +10704,7 @@
         <v>5.73</v>
       </c>
       <c r="O83" t="s">
-        <v>970</v>
+        <v>925</v>
       </c>
       <c r="P83">
         <v>5226</v>
@@ -10901,7 +10766,7 @@
         <v>593</v>
       </c>
       <c r="G84" t="s">
-        <v>873</v>
+        <v>273</v>
       </c>
       <c r="H84">
         <v>16.8465</v>
@@ -10925,7 +10790,7 @@
         <v>5.64</v>
       </c>
       <c r="O84" t="s">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="P84">
         <v>5780</v>
@@ -10987,7 +10852,7 @@
         <v>594</v>
       </c>
       <c r="G85" t="s">
-        <v>874</v>
+        <v>274</v>
       </c>
       <c r="H85">
         <v>10.9869</v>
@@ -11011,7 +10876,7 @@
         <v>6.07</v>
       </c>
       <c r="O85" t="s">
-        <v>1009</v>
+        <v>964</v>
       </c>
       <c r="P85">
         <v>4843</v>
@@ -11079,7 +10944,7 @@
         <v>734</v>
       </c>
       <c r="G86" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H86">
         <v>14.5307</v>
@@ -11103,7 +10968,7 @@
         <v>3.76</v>
       </c>
       <c r="O86" t="s">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="P86">
         <v>6280</v>
@@ -11168,7 +11033,7 @@
         <v>735</v>
       </c>
       <c r="G87" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="H87">
         <v>19.536</v>
@@ -11192,7 +11057,7 @@
         <v>4.664</v>
       </c>
       <c r="O87" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="P87">
         <v>6435</v>
@@ -11257,7 +11122,7 @@
         <v>736</v>
       </c>
       <c r="G88" t="s">
-        <v>877</v>
+        <v>852</v>
       </c>
       <c r="H88">
         <v>23.1569</v>
@@ -11281,7 +11146,7 @@
         <v>4.69</v>
       </c>
       <c r="O88" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="P88">
         <v>6473</v>
@@ -11343,7 +11208,7 @@
         <v>598</v>
       </c>
       <c r="G89" t="s">
-        <v>878</v>
+        <v>278</v>
       </c>
       <c r="H89">
         <v>20.6102</v>
@@ -11367,7 +11232,7 @@
         <v>5.28</v>
       </c>
       <c r="O89" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="P89">
         <v>6084</v>
@@ -11432,7 +11297,7 @@
         <v>737</v>
       </c>
       <c r="G90" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="H90">
         <v>19.5879</v>
@@ -11456,7 +11321,7 @@
         <v>4.78</v>
       </c>
       <c r="O90" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="P90">
         <v>6480</v>
@@ -11518,7 +11383,7 @@
         <v>600</v>
       </c>
       <c r="G91" t="s">
-        <v>880</v>
+        <v>280</v>
       </c>
       <c r="H91">
         <v>14.9515</v>
@@ -11542,7 +11407,7 @@
         <v>4.615</v>
       </c>
       <c r="O91" t="s">
-        <v>987</v>
+        <v>942</v>
       </c>
       <c r="P91">
         <v>6163</v>
@@ -11631,7 +11496,7 @@
         <v>4.935</v>
       </c>
       <c r="O92" t="s">
-        <v>999</v>
+        <v>954</v>
       </c>
       <c r="P92">
         <v>4632</v>
@@ -11696,7 +11561,7 @@
         <v>739</v>
       </c>
       <c r="G93" t="s">
-        <v>881</v>
+        <v>854</v>
       </c>
       <c r="H93">
         <v>5.7639</v>
@@ -11720,7 +11585,7 @@
         <v>4.21</v>
       </c>
       <c r="O93" t="s">
-        <v>1005</v>
+        <v>960</v>
       </c>
       <c r="P93">
         <v>5298</v>
@@ -11788,7 +11653,7 @@
         <v>740</v>
       </c>
       <c r="G94" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="H94">
         <v>5.0098</v>
@@ -11812,7 +11677,7 @@
         <v>3.097</v>
       </c>
       <c r="O94" t="s">
-        <v>987</v>
+        <v>942</v>
       </c>
       <c r="P94">
         <v>5907</v>
@@ -11874,7 +11739,7 @@
         <v>604</v>
       </c>
       <c r="G95" t="s">
-        <v>883</v>
+        <v>284</v>
       </c>
       <c r="H95">
         <v>8.843999999999999</v>
@@ -11898,7 +11763,7 @@
         <v>5.61</v>
       </c>
       <c r="O95" t="s">
-        <v>1010</v>
+        <v>965</v>
       </c>
       <c r="P95">
         <v>4810</v>
@@ -11963,7 +11828,7 @@
         <v>605</v>
       </c>
       <c r="G96" t="s">
-        <v>884</v>
+        <v>285</v>
       </c>
       <c r="H96">
         <v>18.2023</v>
@@ -11987,7 +11852,7 @@
         <v>5.11</v>
       </c>
       <c r="O96" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="P96">
         <v>6204</v>
@@ -12052,7 +11917,7 @@
         <v>741</v>
       </c>
       <c r="G97" t="s">
-        <v>885</v>
+        <v>856</v>
       </c>
       <c r="H97">
         <v>14.5792</v>
@@ -12076,7 +11941,7 @@
         <v>4.7</v>
       </c>
       <c r="O97" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="P97">
         <v>6131</v>
@@ -12141,7 +12006,7 @@
         <v>742</v>
       </c>
       <c r="G98" t="s">
-        <v>886</v>
+        <v>857</v>
       </c>
       <c r="H98">
         <v>9.276199999999999</v>
@@ -12165,7 +12030,7 @@
         <v>4.438</v>
       </c>
       <c r="O98" t="s">
-        <v>1011</v>
+        <v>966</v>
       </c>
       <c r="P98">
         <v>5709</v>
@@ -12233,7 +12098,7 @@
         <v>743</v>
       </c>
       <c r="G99" t="s">
-        <v>887</v>
+        <v>858</v>
       </c>
       <c r="H99">
         <v>18.3274</v>
@@ -12257,7 +12122,7 @@
         <v>4.773</v>
       </c>
       <c r="O99" t="s">
-        <v>1012</v>
+        <v>967</v>
       </c>
       <c r="P99">
         <v>6525</v>
@@ -12322,7 +12187,7 @@
         <v>744</v>
       </c>
       <c r="G100" t="s">
-        <v>888</v>
+        <v>859</v>
       </c>
       <c r="H100">
         <v>14.2764</v>
@@ -12346,7 +12211,7 @@
         <v>4.172</v>
       </c>
       <c r="O100" t="s">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="P100">
         <v>6330</v>
@@ -12411,7 +12276,7 @@
         <v>745</v>
       </c>
       <c r="G101" t="s">
-        <v>889</v>
+        <v>860</v>
       </c>
       <c r="H101">
         <v>9.2584</v>
@@ -12435,7 +12300,7 @@
         <v>3.91</v>
       </c>
       <c r="O101" t="s">
-        <v>1013</v>
+        <v>968</v>
       </c>
       <c r="P101">
         <v>6095</v>
@@ -12500,7 +12365,7 @@
         <v>746</v>
       </c>
       <c r="G102" t="s">
-        <v>890</v>
+        <v>861</v>
       </c>
       <c r="H102">
         <v>10.0411</v>
@@ -12524,7 +12389,7 @@
         <v>5.23</v>
       </c>
       <c r="O102" t="s">
-        <v>971</v>
+        <v>926</v>
       </c>
       <c r="P102">
         <v>5358</v>
@@ -12592,7 +12457,7 @@
         <v>747</v>
       </c>
       <c r="G103" t="s">
-        <v>891</v>
+        <v>862</v>
       </c>
       <c r="H103">
         <v>6.7486</v>
@@ -12616,7 +12481,7 @@
         <v>6.167</v>
       </c>
       <c r="O103" t="s">
-        <v>1014</v>
+        <v>969</v>
       </c>
       <c r="P103">
         <v>4288</v>
@@ -12681,7 +12546,7 @@
         <v>748</v>
       </c>
       <c r="G104" t="s">
-        <v>892</v>
+        <v>863</v>
       </c>
       <c r="H104">
         <v>17.7532</v>
@@ -12705,7 +12570,7 @@
         <v>5.12</v>
       </c>
       <c r="O104" t="s">
-        <v>962</v>
+        <v>917</v>
       </c>
       <c r="P104">
         <v>5951</v>
@@ -12770,7 +12635,7 @@
         <v>749</v>
       </c>
       <c r="G105" t="s">
-        <v>893</v>
+        <v>864</v>
       </c>
       <c r="H105">
         <v>8.607100000000001</v>
@@ -12794,7 +12659,7 @@
         <v>3.885</v>
       </c>
       <c r="O105" t="s">
-        <v>990</v>
+        <v>945</v>
       </c>
       <c r="P105">
         <v>5932</v>
@@ -12856,7 +12721,7 @@
         <v>615</v>
       </c>
       <c r="G106" t="s">
-        <v>894</v>
+        <v>295</v>
       </c>
       <c r="H106">
         <v>18.707</v>
@@ -12880,7 +12745,7 @@
         <v>5.045</v>
       </c>
       <c r="O106" t="s">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="P106">
         <v>6268</v>
@@ -12945,7 +12810,7 @@
         <v>750</v>
       </c>
       <c r="G107" t="s">
-        <v>895</v>
+        <v>865</v>
       </c>
       <c r="H107">
         <v>21.1919</v>
@@ -12969,7 +12834,7 @@
         <v>5.218</v>
       </c>
       <c r="O107" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="P107">
         <v>6381</v>
@@ -13034,7 +12899,7 @@
         <v>751</v>
       </c>
       <c r="G108" t="s">
-        <v>896</v>
+        <v>866</v>
       </c>
       <c r="H108">
         <v>17.3488</v>
@@ -13058,7 +12923,7 @@
         <v>5.21</v>
       </c>
       <c r="O108" t="s">
-        <v>987</v>
+        <v>942</v>
       </c>
       <c r="P108">
         <v>6155</v>
@@ -13123,7 +12988,7 @@
         <v>752</v>
       </c>
       <c r="G109" t="s">
-        <v>897</v>
+        <v>867</v>
       </c>
       <c r="H109">
         <v>13.7137</v>
@@ -13147,7 +13012,7 @@
         <v>3.837</v>
       </c>
       <c r="O109" t="s">
-        <v>956</v>
+        <v>911</v>
       </c>
       <c r="P109">
         <v>6200</v>
@@ -13212,7 +13077,7 @@
         <v>619</v>
       </c>
       <c r="G110" t="s">
-        <v>898</v>
+        <v>299</v>
       </c>
       <c r="H110">
         <v>6.0122</v>
@@ -13236,7 +13101,7 @@
         <v>4.79</v>
       </c>
       <c r="O110" t="s">
-        <v>1007</v>
+        <v>962</v>
       </c>
       <c r="P110">
         <v>4980</v>
@@ -13301,7 +13166,7 @@
         <v>753</v>
       </c>
       <c r="G111" t="s">
-        <v>899</v>
+        <v>868</v>
       </c>
       <c r="H111">
         <v>17.6523</v>
@@ -13325,7 +13190,7 @@
         <v>4.585</v>
       </c>
       <c r="O111" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="P111">
         <v>6404</v>
@@ -13393,7 +13258,7 @@
         <v>754</v>
       </c>
       <c r="G112" t="s">
-        <v>900</v>
+        <v>869</v>
       </c>
       <c r="H112">
         <v>14.9263</v>
@@ -13417,7 +13282,7 @@
         <v>5.01</v>
       </c>
       <c r="O112" t="s">
-        <v>963</v>
+        <v>918</v>
       </c>
       <c r="P112">
         <v>5743</v>
@@ -13485,7 +13350,7 @@
         <v>755</v>
       </c>
       <c r="G113" t="s">
-        <v>901</v>
+        <v>870</v>
       </c>
       <c r="H113">
         <v>14.7927</v>
@@ -13509,7 +13374,7 @@
         <v>5.49</v>
       </c>
       <c r="O113" t="s">
-        <v>1011</v>
+        <v>966</v>
       </c>
       <c r="P113">
         <v>5682</v>
@@ -13571,7 +13436,7 @@
         <v>623</v>
       </c>
       <c r="G114" t="s">
-        <v>902</v>
+        <v>303</v>
       </c>
       <c r="H114">
         <v>16.0035</v>
@@ -13595,7 +13460,7 @@
         <v>5.3</v>
       </c>
       <c r="O114" t="s">
-        <v>994</v>
+        <v>949</v>
       </c>
       <c r="P114">
         <v>5563</v>
@@ -13657,7 +13522,7 @@
         <v>624</v>
       </c>
       <c r="G115" t="s">
-        <v>903</v>
+        <v>304</v>
       </c>
       <c r="H115">
         <v>6.5418</v>
@@ -13681,7 +13546,7 @@
         <v>5.03</v>
       </c>
       <c r="O115" t="s">
-        <v>1015</v>
+        <v>970</v>
       </c>
       <c r="P115">
         <v>4874</v>
@@ -13743,7 +13608,7 @@
         <v>625</v>
       </c>
       <c r="G116" t="s">
-        <v>904</v>
+        <v>305</v>
       </c>
       <c r="H116">
         <v>18.8007</v>
@@ -13767,7 +13632,7 @@
         <v>4.497</v>
       </c>
       <c r="O116" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="P116">
         <v>6105</v>
@@ -13835,7 +13700,7 @@
         <v>756</v>
       </c>
       <c r="G117" t="s">
-        <v>905</v>
+        <v>871</v>
       </c>
       <c r="H117">
         <v>21.7816</v>
@@ -13859,7 +13724,7 @@
         <v>4.46</v>
       </c>
       <c r="O117" t="s">
-        <v>996</v>
+        <v>951</v>
       </c>
       <c r="P117">
         <v>6662</v>
@@ -13924,7 +13789,7 @@
         <v>757</v>
       </c>
       <c r="G118" t="s">
-        <v>906</v>
+        <v>872</v>
       </c>
       <c r="H118">
         <v>15.9172</v>
@@ -13948,7 +13813,7 @@
         <v>4.53</v>
       </c>
       <c r="O118" t="s">
-        <v>1001</v>
+        <v>956</v>
       </c>
       <c r="P118">
         <v>5691</v>
@@ -14010,7 +13875,7 @@
         <v>628</v>
       </c>
       <c r="G119" t="s">
-        <v>907</v>
+        <v>308</v>
       </c>
       <c r="H119">
         <v>20.4426</v>
@@ -14034,7 +13899,7 @@
         <v>5.36</v>
       </c>
       <c r="O119" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="P119">
         <v>6280</v>
@@ -14099,7 +13964,7 @@
         <v>758</v>
       </c>
       <c r="G120" t="s">
-        <v>908</v>
+        <v>873</v>
       </c>
       <c r="H120">
         <v>15.2609</v>
@@ -14123,7 +13988,7 @@
         <v>4.64</v>
       </c>
       <c r="O120" t="s">
-        <v>1016</v>
+        <v>971</v>
       </c>
       <c r="P120">
         <v>6110</v>
@@ -14188,7 +14053,7 @@
         <v>759</v>
       </c>
       <c r="G121" t="s">
-        <v>909</v>
+        <v>874</v>
       </c>
       <c r="H121">
         <v>6.0993</v>
@@ -14212,7 +14077,7 @@
         <v>3.135</v>
       </c>
       <c r="O121" t="s">
-        <v>1017</v>
+        <v>972</v>
       </c>
       <c r="P121">
         <v>5576</v>
@@ -14271,7 +14136,7 @@
         <v>631</v>
       </c>
       <c r="G122" t="s">
-        <v>910</v>
+        <v>875</v>
       </c>
       <c r="H122">
         <v>2.5461</v>
@@ -14295,7 +14160,7 @@
         <v>6.4</v>
       </c>
       <c r="O122" t="s">
-        <v>1018</v>
+        <v>973</v>
       </c>
       <c r="P122">
         <v>3601</v>
@@ -14357,7 +14222,7 @@
         <v>632</v>
       </c>
       <c r="G123" t="s">
-        <v>911</v>
+        <v>312</v>
       </c>
       <c r="H123">
         <v>10.0672</v>
@@ -14381,7 +14246,7 @@
         <v>5.911</v>
       </c>
       <c r="O123" t="s">
-        <v>1015</v>
+        <v>970</v>
       </c>
       <c r="P123">
         <v>4867</v>
@@ -14449,7 +14314,7 @@
         <v>760</v>
       </c>
       <c r="G124" t="s">
-        <v>912</v>
+        <v>876</v>
       </c>
       <c r="H124">
         <v>5.9523</v>
@@ -14473,7 +14338,7 @@
         <v>4.583</v>
       </c>
       <c r="O124" t="s">
-        <v>970</v>
+        <v>925</v>
       </c>
       <c r="P124">
         <v>5132</v>
@@ -14538,7 +14403,7 @@
         <v>761</v>
       </c>
       <c r="G125" t="s">
-        <v>913</v>
+        <v>877</v>
       </c>
       <c r="H125">
         <v>3.6522</v>
@@ -14562,7 +14427,7 @@
         <v>3.065</v>
       </c>
       <c r="O125" t="s">
-        <v>981</v>
+        <v>936</v>
       </c>
       <c r="P125">
         <v>5356</v>
@@ -14624,7 +14489,7 @@
         <v>635</v>
       </c>
       <c r="G126" t="s">
-        <v>914</v>
+        <v>315</v>
       </c>
       <c r="H126">
         <v>15.2104</v>
@@ -14648,7 +14513,7 @@
         <v>5.58</v>
       </c>
       <c r="O126" t="s">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="P126">
         <v>5731</v>
@@ -14716,7 +14581,7 @@
         <v>762</v>
       </c>
       <c r="G127" t="s">
-        <v>915</v>
+        <v>878</v>
       </c>
       <c r="H127">
         <v>9.558999999999999</v>
@@ -14740,7 +14605,7 @@
         <v>5.525</v>
       </c>
       <c r="O127" t="s">
-        <v>1006</v>
+        <v>961</v>
       </c>
       <c r="P127">
         <v>5196</v>
@@ -14805,7 +14670,7 @@
         <v>763</v>
       </c>
       <c r="G128" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="H128">
         <v>9.8939</v>
@@ -14829,7 +14694,7 @@
         <v>5.305</v>
       </c>
       <c r="O128" t="s">
-        <v>1019</v>
+        <v>974</v>
       </c>
       <c r="P128">
         <v>5262</v>
@@ -14894,7 +14759,7 @@
         <v>764</v>
       </c>
       <c r="G129" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="H129">
         <v>18.2233</v>
@@ -14918,7 +14783,7 @@
         <v>4.85</v>
       </c>
       <c r="O129" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="P129">
         <v>6269</v>
@@ -14983,7 +14848,7 @@
         <v>765</v>
       </c>
       <c r="G130" t="s">
-        <v>918</v>
+        <v>881</v>
       </c>
       <c r="H130">
         <v>3.4966</v>
@@ -15007,7 +14872,7 @@
         <v>4.503</v>
       </c>
       <c r="O130" t="s">
-        <v>1014</v>
+        <v>969</v>
       </c>
       <c r="P130">
         <v>4441</v>
@@ -15066,7 +14931,7 @@
         <v>640</v>
       </c>
       <c r="G131" t="s">
-        <v>919</v>
+        <v>320</v>
       </c>
       <c r="H131">
         <v>11.1917</v>
@@ -15090,7 +14955,7 @@
         <v>6.042</v>
       </c>
       <c r="O131" t="s">
-        <v>1009</v>
+        <v>964</v>
       </c>
       <c r="P131">
         <v>4992</v>
@@ -15155,7 +15020,7 @@
         <v>766</v>
       </c>
       <c r="G132" t="s">
-        <v>920</v>
+        <v>882</v>
       </c>
       <c r="H132">
         <v>1.3319</v>
@@ -15179,7 +15044,7 @@
         <v>0.866</v>
       </c>
       <c r="O132" t="s">
-        <v>970</v>
+        <v>925</v>
       </c>
       <c r="P132">
         <v>5244</v>
@@ -15241,7 +15106,7 @@
         <v>642</v>
       </c>
       <c r="G133" t="s">
-        <v>921</v>
+        <v>322</v>
       </c>
       <c r="H133">
         <v>17.9323</v>
@@ -15265,7 +15130,7 @@
         <v>5.705</v>
       </c>
       <c r="O133" t="s">
-        <v>1020</v>
+        <v>975</v>
       </c>
       <c r="P133">
         <v>5730</v>
@@ -15330,7 +15195,7 @@
         <v>643</v>
       </c>
       <c r="G134" t="s">
-        <v>922</v>
+        <v>323</v>
       </c>
       <c r="H134">
         <v>15.0487</v>
@@ -15354,7 +15219,7 @@
         <v>5.42</v>
       </c>
       <c r="O134" t="s">
-        <v>1021</v>
+        <v>976</v>
       </c>
       <c r="P134">
         <v>5887</v>
@@ -15419,7 +15284,7 @@
         <v>767</v>
       </c>
       <c r="G135" t="s">
-        <v>923</v>
+        <v>883</v>
       </c>
       <c r="H135">
         <v>9.088800000000001</v>
@@ -15443,7 +15308,7 @@
         <v>3.02</v>
       </c>
       <c r="O135" t="s">
-        <v>1022</v>
+        <v>977</v>
       </c>
       <c r="P135">
         <v>5045</v>
@@ -15511,7 +15376,7 @@
         <v>768</v>
       </c>
       <c r="G136" t="s">
-        <v>924</v>
+        <v>884</v>
       </c>
       <c r="H136">
         <v>11.2348</v>
@@ -15535,7 +15400,7 @@
         <v>4.97</v>
       </c>
       <c r="O136" t="s">
-        <v>1023</v>
+        <v>978</v>
       </c>
       <c r="P136">
         <v>5518</v>
@@ -15600,7 +15465,7 @@
         <v>646</v>
       </c>
       <c r="G137" t="s">
-        <v>925</v>
+        <v>326</v>
       </c>
       <c r="H137">
         <v>9.3195</v>
@@ -15624,7 +15489,7 @@
         <v>4.525</v>
       </c>
       <c r="O137" t="s">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="P137">
         <v>5618</v>
@@ -15689,7 +15554,7 @@
         <v>769</v>
       </c>
       <c r="G138" t="s">
-        <v>926</v>
+        <v>885</v>
       </c>
       <c r="H138">
         <v>13.8875</v>
@@ -15713,7 +15578,7 @@
         <v>4.7</v>
       </c>
       <c r="O138" t="s">
-        <v>1024</v>
+        <v>979</v>
       </c>
       <c r="P138">
         <v>5880</v>
@@ -15778,7 +15643,7 @@
         <v>770</v>
       </c>
       <c r="G139" t="s">
-        <v>927</v>
+        <v>886</v>
       </c>
       <c r="H139">
         <v>14.5863</v>
@@ -15802,7 +15667,7 @@
         <v>5.04</v>
       </c>
       <c r="O139" t="s">
-        <v>962</v>
+        <v>917</v>
       </c>
       <c r="P139">
         <v>5704</v>
@@ -15861,7 +15726,7 @@
         <v>649</v>
       </c>
       <c r="G140" t="s">
-        <v>928</v>
+        <v>887</v>
       </c>
       <c r="H140">
         <v>3.2871</v>
@@ -15885,7 +15750,7 @@
         <v>6.36</v>
       </c>
       <c r="O140" t="s">
-        <v>1025</v>
+        <v>980</v>
       </c>
       <c r="P140">
         <v>3680</v>
@@ -15950,7 +15815,7 @@
         <v>771</v>
       </c>
       <c r="G141" t="s">
-        <v>929</v>
+        <v>888</v>
       </c>
       <c r="H141">
         <v>10.3605</v>
@@ -15974,7 +15839,7 @@
         <v>5.525</v>
       </c>
       <c r="O141" t="s">
-        <v>1026</v>
+        <v>981</v>
       </c>
       <c r="P141">
         <v>5199</v>
@@ -16039,7 +15904,7 @@
         <v>772</v>
       </c>
       <c r="G142" t="s">
-        <v>930</v>
+        <v>889</v>
       </c>
       <c r="H142">
         <v>21.7763</v>
@@ -16063,7 +15928,7 @@
         <v>4.91</v>
       </c>
       <c r="O142" t="s">
-        <v>975</v>
+        <v>930</v>
       </c>
       <c r="P142">
         <v>6539</v>
@@ -16128,7 +15993,7 @@
         <v>773</v>
       </c>
       <c r="G143" t="s">
-        <v>931</v>
+        <v>890</v>
       </c>
       <c r="H143">
         <v>12.5625</v>
@@ -16152,7 +16017,7 @@
         <v>4.319</v>
       </c>
       <c r="O143" t="s">
-        <v>989</v>
+        <v>944</v>
       </c>
       <c r="P143">
         <v>5854</v>
@@ -16217,7 +16082,7 @@
         <v>774</v>
       </c>
       <c r="G144" t="s">
-        <v>932</v>
+        <v>891</v>
       </c>
       <c r="H144">
         <v>17.5565</v>
@@ -16241,7 +16106,7 @@
         <v>5.6</v>
       </c>
       <c r="O144" t="s">
-        <v>1027</v>
+        <v>982</v>
       </c>
       <c r="P144">
         <v>5889</v>
@@ -16306,7 +16171,7 @@
         <v>775</v>
       </c>
       <c r="G145" t="s">
-        <v>933</v>
+        <v>892</v>
       </c>
       <c r="H145">
         <v>9.1975</v>
@@ -16330,7 +16195,7 @@
         <v>3.9</v>
       </c>
       <c r="O145" t="s">
-        <v>990</v>
+        <v>945</v>
       </c>
       <c r="P145">
         <v>5996</v>
@@ -16389,7 +16254,7 @@
         <v>655</v>
       </c>
       <c r="G146" t="s">
-        <v>934</v>
+        <v>893</v>
       </c>
       <c r="H146">
         <v>4.8706</v>
@@ -16413,7 +16278,7 @@
         <v>5.67</v>
       </c>
       <c r="O146" t="s">
-        <v>976</v>
+        <v>931</v>
       </c>
       <c r="P146">
         <v>4097</v>
@@ -16478,7 +16343,7 @@
         <v>776</v>
       </c>
       <c r="G147" t="s">
-        <v>935</v>
+        <v>894</v>
       </c>
       <c r="H147">
         <v>7.4588</v>
@@ -16502,7 +16367,7 @@
         <v>2.445</v>
       </c>
       <c r="O147" t="s">
-        <v>962</v>
+        <v>917</v>
       </c>
       <c r="P147">
         <v>5806</v>
@@ -16564,7 +16429,7 @@
         <v>657</v>
       </c>
       <c r="G148" t="s">
-        <v>936</v>
+        <v>337</v>
       </c>
       <c r="H148">
         <v>12.5794</v>
@@ -16588,7 +16453,7 @@
         <v>5.525</v>
       </c>
       <c r="O148" t="s">
-        <v>1028</v>
+        <v>983</v>
       </c>
       <c r="P148">
         <v>5423</v>
@@ -16653,7 +16518,7 @@
         <v>777</v>
       </c>
       <c r="G149" t="s">
-        <v>937</v>
+        <v>895</v>
       </c>
       <c r="H149">
         <v>14.1369</v>
@@ -16677,7 +16542,7 @@
         <v>5.127</v>
       </c>
       <c r="O149" t="s">
-        <v>1029</v>
+        <v>984</v>
       </c>
       <c r="P149">
         <v>5785</v>
@@ -16742,7 +16607,7 @@
         <v>778</v>
       </c>
       <c r="G150" t="s">
-        <v>938</v>
+        <v>896</v>
       </c>
       <c r="H150">
         <v>10.929</v>
@@ -16766,7 +16631,7 @@
         <v>3.28</v>
       </c>
       <c r="O150" t="s">
-        <v>987</v>
+        <v>942</v>
       </c>
       <c r="P150">
         <v>6123</v>
@@ -16831,7 +16696,7 @@
         <v>779</v>
       </c>
       <c r="G151" t="s">
-        <v>939</v>
+        <v>897</v>
       </c>
       <c r="H151">
         <v>18.133</v>
@@ -16855,7 +16720,7 @@
         <v>5.59</v>
       </c>
       <c r="O151" t="s">
-        <v>955</v>
+        <v>910</v>
       </c>
       <c r="P151">
         <v>5939</v>
@@ -16917,7 +16782,7 @@
         <v>661</v>
       </c>
       <c r="G152" t="s">
-        <v>940</v>
+        <v>341</v>
       </c>
       <c r="H152">
         <v>12.1643</v>
@@ -16941,7 +16806,7 @@
         <v>5.91</v>
       </c>
       <c r="O152" t="s">
-        <v>970</v>
+        <v>925</v>
       </c>
       <c r="P152">
         <v>5261</v>
@@ -17009,7 +16874,7 @@
         <v>780</v>
       </c>
       <c r="G153" t="s">
-        <v>941</v>
+        <v>898</v>
       </c>
       <c r="H153">
         <v>12.5868</v>
@@ -17033,7 +16898,7 @@
         <v>5.49</v>
       </c>
       <c r="O153" t="s">
-        <v>1030</v>
+        <v>985</v>
       </c>
       <c r="P153">
         <v>5292</v>
@@ -17098,7 +16963,7 @@
         <v>663</v>
       </c>
       <c r="G154" t="s">
-        <v>942</v>
+        <v>343</v>
       </c>
       <c r="H154">
         <v>18.24</v>
@@ -17122,7 +16987,7 @@
         <v>4.62</v>
       </c>
       <c r="O154" t="s">
-        <v>1031</v>
+        <v>986</v>
       </c>
       <c r="P154">
         <v>6238</v>
@@ -17187,7 +17052,7 @@
         <v>781</v>
       </c>
       <c r="G155" t="s">
-        <v>943</v>
+        <v>899</v>
       </c>
       <c r="H155">
         <v>7.6015</v>
@@ -17211,7 +17076,7 @@
         <v>5.8</v>
       </c>
       <c r="O155" t="s">
-        <v>1032</v>
+        <v>987</v>
       </c>
       <c r="P155">
         <v>4601</v>
@@ -17276,7 +17141,7 @@
         <v>782</v>
       </c>
       <c r="G156" t="s">
-        <v>944</v>
+        <v>900</v>
       </c>
       <c r="H156">
         <v>17.3572</v>
@@ -17300,7 +17165,7 @@
         <v>5.085</v>
       </c>
       <c r="O156" t="s">
-        <v>1033</v>
+        <v>988</v>
       </c>
       <c r="P156">
         <v>6157</v>
@@ -17368,7 +17233,7 @@
         <v>783</v>
       </c>
       <c r="G157" t="s">
-        <v>945</v>
+        <v>901</v>
       </c>
       <c r="H157">
         <v>13.4916</v>
@@ -17392,7 +17257,7 @@
         <v>3.772</v>
       </c>
       <c r="O157" t="s">
-        <v>958</v>
+        <v>913</v>
       </c>
       <c r="P157">
         <v>6154</v>
@@ -17457,7 +17322,7 @@
         <v>784</v>
       </c>
       <c r="G158" t="s">
-        <v>946</v>
+        <v>902</v>
       </c>
       <c r="H158">
         <v>3.2198</v>
@@ -17481,7 +17346,7 @@
         <v>3.225</v>
       </c>
       <c r="O158" t="s">
-        <v>973</v>
+        <v>928</v>
       </c>
       <c r="P158">
         <v>5098</v>
@@ -17546,7 +17411,7 @@
         <v>785</v>
       </c>
       <c r="G159" t="s">
-        <v>947</v>
+        <v>903</v>
       </c>
       <c r="H159">
         <v>13.9204</v>
@@ -17570,7 +17435,7 @@
         <v>3.955</v>
       </c>
       <c r="O159" t="s">
-        <v>1034</v>
+        <v>989</v>
       </c>
       <c r="P159">
         <v>5996</v>
@@ -17635,7 +17500,7 @@
         <v>786</v>
       </c>
       <c r="G160" t="s">
-        <v>948</v>
+        <v>904</v>
       </c>
       <c r="H160">
         <v>20.9624</v>
@@ -17659,7 +17524,7 @@
         <v>4.466</v>
       </c>
       <c r="O160" t="s">
-        <v>1035</v>
+        <v>990</v>
       </c>
       <c r="P160">
         <v>6620</v>
@@ -17724,7 +17589,7 @@
         <v>787</v>
       </c>
       <c r="G161" t="s">
-        <v>949</v>
+        <v>905</v>
       </c>
       <c r="H161">
         <v>11.6927</v>
@@ -17748,7 +17613,7 @@
         <v>4.375</v>
       </c>
       <c r="O161" t="s">
-        <v>1036</v>
+        <v>991</v>
       </c>
       <c r="P161">
         <v>6158</v>
@@ -17813,7 +17678,7 @@
         <v>671</v>
       </c>
       <c r="G162" t="s">
-        <v>950</v>
+        <v>351</v>
       </c>
       <c r="H162">
         <v>17.9888</v>
@@ -17837,7 +17702,7 @@
         <v>5.53</v>
       </c>
       <c r="O162" t="s">
-        <v>1037</v>
+        <v>992</v>
       </c>
       <c r="P162">
         <v>6120</v>
@@ -17902,7 +17767,7 @@
         <v>788</v>
       </c>
       <c r="G163" t="s">
-        <v>951</v>
+        <v>906</v>
       </c>
       <c r="H163">
         <v>18.8861</v>
@@ -17926,7 +17791,7 @@
         <v>4.575</v>
       </c>
       <c r="O163" t="s">
-        <v>1038</v>
+        <v>993</v>
       </c>
       <c r="P163">
         <v>6190</v>
@@ -17994,7 +17859,7 @@
         <v>789</v>
       </c>
       <c r="G164" t="s">
-        <v>952</v>
+        <v>907</v>
       </c>
       <c r="H164">
         <v>16.1509</v>
@@ -18018,7 +17883,7 @@
         <v>3.91</v>
       </c>
       <c r="O164" t="s">
-        <v>968</v>
+        <v>923</v>
       </c>
       <c r="P164">
         <v>6193</v>
@@ -18083,7 +17948,7 @@
         <v>790</v>
       </c>
       <c r="G165" t="s">
-        <v>953</v>
+        <v>908</v>
       </c>
       <c r="H165">
         <v>10.5774</v>
@@ -18107,7 +17972,7 @@
         <v>3.71</v>
       </c>
       <c r="O165" t="s">
-        <v>962</v>
+        <v>917</v>
       </c>
       <c r="P165">
         <v>5952</v>
